--- a/Task_1/График задания_1.xlsx
+++ b/Task_1/График задания_1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\ВУЗ\САОД\Задание_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\ВУЗ\САОД\SAOD\Task_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F54A67A1-17FC-4B9D-92C7-6DB7469F393F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FAFD27C-345D-429F-905B-570E7682919D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{36B8987E-9324-494C-AEF6-6145B03C3CCC}"/>
   </bookViews>
@@ -2426,15 +2426,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>33683</xdr:colOff>
+      <xdr:colOff>141144</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:rowOff>174870</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
+      <xdr:colOff>507511</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>106846</xdr:rowOff>
+      <xdr:rowOff>116616</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2761,8 +2761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DCF3FD6-0B34-4035-BF50-BA5422053B80}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
